--- a/ListasDatos/Velasco Sánchez David_2021.xlsx
+++ b/ListasDatos/Velasco Sánchez David_2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1102">
   <si>
     <t>NC</t>
   </si>
@@ -1271,7 +1271,7 @@
     <t>JESUS HERNANDEZ AQUINO</t>
   </si>
   <si>
-    <t>FERNANDO IXMATLAHUA ANDRADE IXTACZOQUITLAN HERNANDEZ</t>
+    <t>FERNANDO IXMATLAHUA ANDRADE</t>
   </si>
   <si>
     <t>ISABEL MONGE MORA</t>
@@ -1847,7 +1847,7 @@
     <t>2722351304</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722110115</t>
@@ -1925,7 +1925,7 @@
     <t>MARISOL ARELLANO SERENA</t>
   </si>
   <si>
-    <t>MUCIO SERGIO NEPOMUCENO DE JESÚS</t>
+    <t>MARÍA VIVIANA DE JESÚS MOLOHUA</t>
   </si>
   <si>
     <t>CLEMENTE OFICIAL VAZQUEZ</t>
@@ -1934,7 +1934,7 @@
     <t>LUZ MARÍA PALOMARES DE LOS SANTOS</t>
   </si>
   <si>
-    <t>ENRIQUETA YULI PÉREZ CONTRERAS GEORGINA CONTRERAS LEYVA PEREZ CONTRERAS</t>
+    <t>ENRIQUETA YULI PEREZ CONTRERAS</t>
   </si>
   <si>
     <t>MARIA ELENA IXMATLAHUA JUAREZ</t>
@@ -2348,6 +2348,9 @@
     <t>santilop493@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>griselserrano11218@gmail.com</t>
   </si>
   <si>
@@ -2450,6 +2453,9 @@
     <t>2722805311</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721633478</t>
   </si>
   <si>
@@ -2606,6 +2612,9 @@
     <t>AGUSTIN MARTINEZ CRISTOBAL</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>FERNANDO JAIR MALDONADO GONZÁLEZ</t>
   </si>
   <si>
@@ -2696,6 +2705,9 @@
     <t>Santilop493@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>ferjair71@gmail.com</t>
   </si>
   <si>
@@ -2774,6 +2786,9 @@
     <t>2722956004</t>
   </si>
   <si>
+    <t>9921059452</t>
+  </si>
+  <si>
     <t>2721397474</t>
   </si>
   <si>
@@ -2945,6 +2960,9 @@
     <t>gc050405@gmail.com</t>
   </si>
   <si>
+    <t>cesarcuevasc3@gmail.com</t>
+  </si>
+  <si>
     <t>isyssmonserrathc@gmail.com</t>
   </si>
   <si>
@@ -3017,6 +3035,9 @@
     <t>2721690558</t>
   </si>
   <si>
+    <t>2722848082</t>
+  </si>
+  <si>
     <t>2721054944</t>
   </si>
   <si>
@@ -3120,6 +3141,9 @@
   </si>
   <si>
     <t>GERARDO CORTÉS VILLASCAN</t>
+  </si>
+  <si>
+    <t>GERARDO CUEVAS MACUIXTLE</t>
   </si>
   <si>
     <t>JANETH PIMENTEL DOMINGUEZ</t>
@@ -6857,16 +6881,16 @@
         <v>757</v>
       </c>
       <c r="F2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="J2" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6886,19 +6910,19 @@
         <v>758</v>
       </c>
       <c r="F3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="I3" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="J3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6918,16 +6942,16 @@
         <v>759</v>
       </c>
       <c r="F4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="I4" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6947,19 +6971,19 @@
         <v>760</v>
       </c>
       <c r="F5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="I5" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="J5" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6979,19 +7003,19 @@
         <v>761</v>
       </c>
       <c r="F6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G6" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="H6" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="I6" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="J6" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7011,19 +7035,19 @@
         <v>762</v>
       </c>
       <c r="F7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="I7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="J7" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7043,19 +7067,19 @@
         <v>763</v>
       </c>
       <c r="F8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I8" t="s">
         <v>763</v>
       </c>
       <c r="J8" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7075,19 +7099,19 @@
         <v>764</v>
       </c>
       <c r="F9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G9" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H9" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="I9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="J9" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7107,19 +7131,19 @@
         <v>765</v>
       </c>
       <c r="F10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H10" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="I10" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="J10" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7139,10 +7163,10 @@
         <v>766</v>
       </c>
       <c r="F11" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H11" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7162,19 +7186,19 @@
         <v>767</v>
       </c>
       <c r="F12" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G12" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H12" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="I12" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="J12" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7194,19 +7218,19 @@
         <v>768</v>
       </c>
       <c r="F13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H13" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="I13" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="J13" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7226,19 +7250,19 @@
         <v>769</v>
       </c>
       <c r="F14" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G14" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H14" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="I14" t="s">
         <v>769</v>
       </c>
       <c r="J14" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7258,19 +7282,19 @@
         <v>770</v>
       </c>
       <c r="F15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G15" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H15" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I15" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="J15" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7290,16 +7314,16 @@
         <v>771</v>
       </c>
       <c r="F16" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H16" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="I16" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="J16" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7319,13 +7343,13 @@
         <v>772</v>
       </c>
       <c r="F17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H17" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J17" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7345,16 +7369,16 @@
         <v>773</v>
       </c>
       <c r="F18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H18" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="I18" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J18" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7374,19 +7398,19 @@
         <v>774</v>
       </c>
       <c r="F19" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G19" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H19" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="I19" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="J19" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7406,19 +7430,19 @@
         <v>775</v>
       </c>
       <c r="F20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H20" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="I20" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="J20" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7434,6 +7458,24 @@
       <c r="D21" t="s">
         <v>741</v>
       </c>
+      <c r="E21" t="s">
+        <v>776</v>
+      </c>
+      <c r="F21" t="s">
+        <v>811</v>
+      </c>
+      <c r="G21" t="s">
+        <v>811</v>
+      </c>
+      <c r="H21" t="s">
+        <v>864</v>
+      </c>
+      <c r="I21" t="s">
+        <v>895</v>
+      </c>
+      <c r="J21" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
@@ -7449,22 +7491,22 @@
         <v>742</v>
       </c>
       <c r="E22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F22" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G22" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H22" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="I22" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="J22" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7481,22 +7523,22 @@
         <v>743</v>
       </c>
       <c r="E23" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F23" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G23" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H23" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="I23" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="J23" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7513,22 +7555,22 @@
         <v>744</v>
       </c>
       <c r="E24" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F24" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G24" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H24" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="I24" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="J24" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7545,22 +7587,22 @@
         <v>745</v>
       </c>
       <c r="E25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F25" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G25" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H25" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="I25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J25" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7577,22 +7619,22 @@
         <v>746</v>
       </c>
       <c r="E26" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F26" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G26" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H26" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="I26" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="J26" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7609,16 +7651,16 @@
         <v>747</v>
       </c>
       <c r="E27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F27" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H27" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="J27" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7635,22 +7677,22 @@
         <v>748</v>
       </c>
       <c r="E28" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F28" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G28" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H28" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="I28" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="J28" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7667,22 +7709,22 @@
         <v>749</v>
       </c>
       <c r="E29" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F29" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G29" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H29" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="I29" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="J29" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7699,19 +7741,19 @@
         <v>750</v>
       </c>
       <c r="E30" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F30" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H30" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="I30" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J30" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7728,22 +7770,22 @@
         <v>751</v>
       </c>
       <c r="E31" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F31" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G31" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H31" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="I31" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="J31" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7760,16 +7802,16 @@
         <v>752</v>
       </c>
       <c r="E32" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F32" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H32" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="J32" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7786,22 +7828,22 @@
         <v>753</v>
       </c>
       <c r="E33" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F33" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G33" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H33" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="I33" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="J33" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7818,22 +7860,22 @@
         <v>754</v>
       </c>
       <c r="E34" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F34" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G34" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H34" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="I34" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="J34" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7850,22 +7892,22 @@
         <v>755</v>
       </c>
       <c r="E35" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F35" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G35" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H35" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="I35" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="J35" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7882,22 +7924,22 @@
         <v>756</v>
       </c>
       <c r="E36" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F36" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G36" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H36" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="I36" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="J36" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -7959,28 +8001,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="C2" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="F2" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="H2" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="I2" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="J2" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7988,28 +8030,28 @@
         <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C3" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="D3" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="E3" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F3" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="H3" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="I3" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="J3" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8020,28 +8062,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D4" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="E4" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="F4" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="G4" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="H4" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="I4" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="J4" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8049,31 +8091,31 @@
         <v>20330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="E5" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="F5" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="G5" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="H5" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="I5" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="J5" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8081,13 +8123,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="C6" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D6" t="s">
-        <v>955</v>
+        <v>960</v>
+      </c>
+      <c r="E6" t="s">
+        <v>980</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I6" t="s">
+        <v>980</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8098,28 +8158,28 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="D7" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="E7" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="F7" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="G7" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="H7" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="I7" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="J7" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8130,25 +8190,25 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D8" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="E8" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="F8" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="H8" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="I8" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="J8" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8156,7 +8216,7 @@
         <v>20330051920343</v>
       </c>
       <c r="B9" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -8165,22 +8225,22 @@
         <v>733</v>
       </c>
       <c r="E9" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="F9" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="G9" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="H9" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="I9" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="J9" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8191,25 +8251,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="D10" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="E10" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="F10" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="H10" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="I10" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="J10" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8223,22 +8283,22 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="E11" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="F11" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="H11" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="I11" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="J11" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8249,28 +8309,28 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="D12" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="E12" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="F12" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="G12" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="H12" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="I12" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="J12" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8284,19 +8344,19 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="E13" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="F13" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="G13" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="H13" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8310,25 +8370,25 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="E14" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="F14" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="G14" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="H14" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="I14" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="J14" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8342,22 +8402,22 @@
         <v>493</v>
       </c>
       <c r="D15" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="E15" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="F15" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="H15" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="I15" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="J15" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8365,31 +8425,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B16" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="C16" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="D16" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="E16" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="F16" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="G16" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="H16" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="I16" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="J16" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8397,28 +8457,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B17" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="C17" t="s">
         <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E17" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="F17" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="H17" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="I17" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="J17" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8426,31 +8486,31 @@
         <v>20330051920350</v>
       </c>
       <c r="B18" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E18" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="F18" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="G18" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="H18" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="I18" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="J18" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8464,25 +8524,25 @@
         <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="E19" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="F19" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="G19" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="H19" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="I19" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="J19" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8496,25 +8556,25 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="E20" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="F20" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="G20" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="H20" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="I20" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="J20" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8528,25 +8588,25 @@
         <v>492</v>
       </c>
       <c r="D21" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="E21" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="F21" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="G21" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="H21" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="I21" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="J21" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8554,31 +8614,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B22" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="E22" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="F22" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="G22" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="H22" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="I22" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="J22" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8592,25 +8652,25 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="E23" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="F23" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="G23" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="H23" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="I23" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="J23" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8618,28 +8678,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B24" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C24" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="D24" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="E24" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="F24" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="H24" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="I24" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="J24" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8653,25 +8713,25 @@
         <v>293</v>
       </c>
       <c r="D25" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="E25" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="G25" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="H25" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="I25" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="J25" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8685,25 +8745,25 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="E26" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="F26" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="G26" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="H26" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="I26" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="J26" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
